--- a/tests/test_data/test_optimizer_adadelta.xlsx
+++ b/tests/test_data/test_optimizer_adadelta.xlsx
@@ -13,15 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
-    <sheet name="results" sheetId="2" r:id="rId2"/>
+    <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="alpha">params!$E$2</definedName>
     <definedName name="e">params!$K$2</definedName>
-    <definedName name="g">results!$W$2:$W$5</definedName>
-    <definedName name="G_e">results!$AI$2:$AL$5</definedName>
+    <definedName name="g">#REF!</definedName>
+    <definedName name="G_e">#REF!</definedName>
     <definedName name="lambda">params!$F$2</definedName>
-    <definedName name="sqrt_G">results!$AD$2:$AG$5</definedName>
+    <definedName name="sqrt_G">#REF!</definedName>
     <definedName name="theta_0">params!$G$2</definedName>
     <definedName name="theta_1">params!$H$2</definedName>
     <definedName name="theta_2">params!$I$2</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>theta_0</t>
   </si>
@@ -85,35 +85,28 @@
     <t>e</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>G+e</t>
-  </si>
-  <si>
-    <t>sqrt(G)</t>
-  </si>
-  <si>
-    <t>alpha/sqrt(G)*g</t>
-  </si>
-  <si>
     <t>gradient</t>
   </si>
   <si>
-    <t>SS_g</t>
-  </si>
-  <si>
-    <t>inv(sqrt(G))</t>
+    <t>Eg2</t>
+  </si>
+  <si>
+    <t>delta_theta</t>
+  </si>
+  <si>
+    <t>numerator</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>g2 (t-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,14 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,7 +425,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,19 +453,19 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -524,19 +512,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,54 +533,44 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Z1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="5" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AE1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.39695254747701181</v>
       </c>
@@ -614,7 +588,7 @@
         <v>0.37710492010316121</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:I3" si="0">B2*0.95</f>
+        <f t="shared" ref="G2:I2" si="0">B2*0.95</f>
         <v>0.31656337274720969</v>
       </c>
       <c r="H2">
@@ -626,359 +600,82 @@
         <v>0.10537479294548276</v>
       </c>
       <c r="K2">
-        <f>F2^2</f>
-        <v>0.14220812076601161</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:N2" si="1">G2^2</f>
-        <v>0.10021236896508882</v>
+        <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>lambda*K2+(1-lambda)*F2^2</f>
+        <v>1.4220812076601157E-2</v>
+      </c>
+      <c r="Q2">
+        <f>lambda*L2+(1-lambda)*G2^2</f>
+        <v>1.002123689650888E-2</v>
+      </c>
+      <c r="R2">
+        <f>lambda*M2+(1-lambda)*H2^2</f>
+        <v>4.28322628616341E-3</v>
+      </c>
+      <c r="S2">
+        <f>lambda*N2+(1-lambda)*I2^2</f>
+        <v>1.1103846988303361E-3</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>SQRT(F2)</f>
+        <v>0.61408869074683436</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AC2" si="1">SQRT(G2)</f>
+        <v>0.56263964732962934</v>
+      </c>
+      <c r="AB2">
         <f t="shared" si="1"/>
-        <v>4.2832262861634107E-2</v>
-      </c>
-      <c r="N2">
+        <v>0.45492809121983552</v>
+      </c>
+      <c r="AC2">
         <f t="shared" si="1"/>
-        <v>1.1103846988303363E-2</v>
-      </c>
-      <c r="P2">
-        <f t="array" ref="P2:S2">TRANSPOSE(U2:U5)</f>
-        <v>5.653732272919861E-3</v>
-      </c>
-      <c r="Q2">
-        <v>5.6301981888147428E-3</v>
-      </c>
-      <c r="R2">
-        <v>5.551109026737111E-3</v>
-      </c>
-      <c r="S2">
-        <v>5.3188626940320703E-3</v>
-      </c>
-      <c r="U2">
-        <f t="array" ref="U2:U5">alpha*MMULT(Y2:AB5,W2:W5)</f>
-        <v>5.653732272919861E-3</v>
-      </c>
-      <c r="W2" s="4">
-        <f>F4</f>
-        <v>0.36097363862662102</v>
-      </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4">
-        <f t="array" ref="Y2:AB5">MINVERSE(AD2:AG5)</f>
-        <v>1.5662451957517851</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4">
-        <f>SQRT(AI2)</f>
-        <v>0.6384696359882579</v>
-      </c>
-      <c r="AE2" s="4">
-        <f t="shared" ref="AE2:AG2" si="2">SQRT(AJ2)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4">
-        <f>K4+e</f>
-        <v>0.4076434760789785</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.38695254782860916</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.32322460339074005</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.20785217819989468</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.1009208391823964</v>
-      </c>
-      <c r="F3">
-        <f>A3*0.95</f>
-        <v>0.36760492043717868</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.30706337322120303</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0.19745956928989994</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>9.5874797223276575E-2</v>
-      </c>
-      <c r="K3">
-        <f>SUMSQ(F$2:F3)</f>
-        <v>0.27734149829563609</v>
-      </c>
-      <c r="L3">
-        <f>SUMSQ(G$2:G3)</f>
-        <v>0.19450028413907267</v>
-      </c>
-      <c r="M3">
-        <f>SUMSQ(H$2:H3)</f>
-        <v>8.1822544365786898E-2</v>
-      </c>
-      <c r="N3">
-        <f>SUMSQ(I$2:I3)</f>
-        <v>2.0295823730907766E-2</v>
-      </c>
-      <c r="U3">
-        <v>5.6301981888147428E-3</v>
-      </c>
-      <c r="W3" s="4">
-        <f>G4</f>
-        <v>0.30044895744812566</v>
-      </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>1.8739283493059982</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD5" si="3">SQRT(AI3)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <f t="shared" ref="AE3:AE5" si="4">SQRT(AJ3)</f>
-        <v>0.53363833274113492</v>
-      </c>
-      <c r="AF3" s="4">
-        <f t="shared" ref="AF3:AF5" si="5">SQRT(AK3)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="4">
-        <f t="shared" ref="AG3:AG5" si="6">SQRT(AL3)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4">
-        <f>L4+e</f>
-        <v>0.28476987017073829</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.37997225118591688</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.31626206047171124</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.20094911787405917</v>
-      </c>
-      <c r="D4" s="3">
-        <v>9.4191056965082648E-2</v>
-      </c>
-      <c r="F4">
-        <f>A4*0.95</f>
-        <v>0.36097363862662102</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4" si="7">B4*0.95</f>
-        <v>0.30044895744812566</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4" si="8">C4*0.95</f>
-        <v>0.19090166198035621</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4" si="9">D4*0.95</f>
-        <v>8.9481504116828509E-2</v>
-      </c>
-      <c r="K4">
-        <f>SUMSQ(F$2:F4)</f>
-        <v>0.4076434660789785</v>
-      </c>
-      <c r="L4">
-        <f>SUMSQ(G$2:G4)</f>
-        <v>0.2847698601707383</v>
-      </c>
-      <c r="M4">
-        <f>SUMSQ(H$2:H4)</f>
-        <v>0.11826598891264908</v>
-      </c>
-      <c r="N4">
-        <f>SUMSQ(I$2:I4)</f>
-        <v>2.8302763309917763E-2</v>
-      </c>
-      <c r="U4">
-        <v>5.551109026737111E-3</v>
-      </c>
-      <c r="W4" s="4">
-        <f>H4</f>
-        <v>0.19090166198035621</v>
-      </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>2.9078369298368498</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="4">
-        <f t="shared" si="5"/>
-        <v>0.34389823918224571</v>
-      </c>
-      <c r="AG4" s="4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="4">
-        <f>M4+e</f>
-        <v>0.11826599891264908</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f>A4-P2</f>
-        <v>0.374318518912997</v>
-      </c>
-      <c r="B5" s="3">
-        <f t="shared" ref="B5:D5" si="10">B4-Q2</f>
-        <v>0.31063186228289652</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="10"/>
-        <v>0.19539800884732206</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="10"/>
-        <v>8.8872194271050572E-2</v>
-      </c>
-      <c r="U5">
-        <v>5.3188626940320703E-3</v>
-      </c>
-      <c r="W5" s="4">
-        <f>I4</f>
-        <v>8.9481504116828509E-2</v>
-      </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>5.9440917388778765</v>
-      </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="4">
-        <f t="shared" si="6"/>
-        <v>0.16823428101881543</v>
-      </c>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="4">
-        <f>N4+e</f>
-        <v>2.8302773309917765E-2</v>
+        <v>0.3246148378393735</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AE1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
